--- a/config_debug/fish3d_gun_bed_config.xlsx
+++ b/config_debug/fish3d_gun_bed_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,9 +86,9 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">1：VIP
-2：鲸币
-</t>
+          <t>1：购买
+2：VIP送
+3：活动赠送</t>
         </r>
       </text>
     </comment>
@@ -173,41 +173,41 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>data|数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿芒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金焰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>青柠</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GunBedPrefab1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GunBedPrefab2</t>
+  </si>
+  <si>
+    <t>GunBedPrefab3</t>
+  </si>
+  <si>
+    <t>GunBedPrefab4</t>
+  </si>
+  <si>
     <t>type|解锁类型</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>data|数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿芒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒霜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金焰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>青柠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GunBedPrefab1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GunBedPrefab2</t>
-  </si>
-  <si>
-    <t>GunBedPrefab3</t>
-  </si>
-  <si>
-    <t>GunBedPrefab4</t>
   </si>
 </sst>
 </file>
@@ -325,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,6 +368,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -692,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -701,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -709,13 +712,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -723,13 +729,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -737,13 +746,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
+      </c>
+      <c r="F5" s="12">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -808,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
@@ -824,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -840,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1085,7 +1097,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1106,10 +1118,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -1123,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1137,10 +1149,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1151,10 +1163,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="11">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
